--- a/xls/dem2020blocs.xlsx
+++ b/xls/dem2020blocs.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -273,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -311,9 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -348,29 +343,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -389,41 +369,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -431,8 +386,55 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -741,7 +743,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,10 +863,10 @@
       <c r="R2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="47"/>
+      <c r="S2" s="43"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -918,14 +920,14 @@
       <c r="R3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="48"/>
+      <c r="S3" s="44"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
@@ -938,7 +940,7 @@
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="2" t="s">
         <v>0</v>
       </c>
@@ -948,11 +950,11 @@
       <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="40"/>
+      <c r="L4" s="45"/>
       <c r="M4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="52"/>
+      <c r="N4" s="35"/>
       <c r="O4" s="1" t="s">
         <v>12</v>
       </c>
@@ -965,12 +967,12 @@
       <c r="R4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="48"/>
+      <c r="S4" s="44"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="52"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
@@ -983,508 +985,508 @@
       <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="52"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="52"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="52"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="48"/>
+      <c r="S5" s="44"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="52"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="52"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="35"/>
       <c r="O6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="52"/>
+      <c r="P6" s="35"/>
       <c r="Q6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="48"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="44"/>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
       <c r="Q7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="48"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="44"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="48"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="44"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="46"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="49"/>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="36"/>
+      <c r="J11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="15" t="s">
+      <c r="M11" s="36"/>
+      <c r="N11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="16" t="s">
+      <c r="P11" s="36"/>
+      <c r="Q11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="16" t="s">
+      <c r="R11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="36" t="s">
+      <c r="S11" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="45"/>
+      <c r="J12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="19" t="s">
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="19" t="s">
+      <c r="P12" s="35"/>
+      <c r="Q12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="R12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="19" t="s">
+      <c r="F13" s="45"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="17" t="s">
+      <c r="I13" s="35"/>
+      <c r="J13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="19" t="s">
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="19" t="s">
+      <c r="P13" s="35"/>
+      <c r="Q13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="19" t="s">
+      <c r="R13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="19" t="s">
+      <c r="F14" s="45"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="17" t="s">
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="17" t="s">
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="17" t="s">
+      <c r="P14" s="35"/>
+      <c r="Q14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="17" t="s">
+      <c r="R14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="S14" s="22" t="s">
+      <c r="S14" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="45"/>
+      <c r="E15" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="19" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="17" t="s">
+      <c r="I15" s="45"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="40"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="24" t="s">
+      <c r="M15" s="45"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="19" t="s">
+      <c r="F16" s="45"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="24" t="s">
+      <c r="I16" s="45"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="17" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="17" t="s">
+      <c r="F17" s="45"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="22" t="s">
+      <c r="I17" s="45"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="18" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="24" t="s">
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="38" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="54"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="52"/>
     </row>
     <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
     </row>
     <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="7" t="s">
         <v>4</v>
       </c>
@@ -1515,7 +1517,7 @@
       <c r="M21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="49"/>
+      <c r="N21" s="36"/>
       <c r="O21" s="7" t="s">
         <v>0</v>
       </c>
@@ -1528,17 +1530,17 @@
       <c r="R21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="47"/>
+      <c r="S21" s="43"/>
       <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1569,7 +1571,7 @@
       <c r="M22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="43"/>
+      <c r="N22" s="35"/>
       <c r="O22" s="2" t="s">
         <v>3</v>
       </c>
@@ -1579,23 +1581,23 @@
       <c r="Q22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R22" s="40"/>
-      <c r="S22" s="48"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="44"/>
       <c r="T22" s="12"/>
     </row>
     <row r="23" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="40"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1605,690 +1607,690 @@
       <c r="M23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="43"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P23" s="40"/>
+      <c r="P23" s="45"/>
       <c r="Q23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R23" s="43"/>
-      <c r="S23" s="48"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="44"/>
       <c r="T23" s="12"/>
     </row>
     <row r="24" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="40"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="45"/>
       <c r="L24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="40"/>
-      <c r="N24" s="43"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="35"/>
       <c r="O24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="43"/>
+      <c r="P24" s="35"/>
       <c r="Q24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R24" s="43"/>
-      <c r="S24" s="48"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="44"/>
       <c r="T24" s="12"/>
     </row>
     <row r="25" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
       <c r="L25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="40"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="48"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="44"/>
       <c r="T25" s="12"/>
     </row>
     <row r="26" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="27"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="25"/>
     </row>
     <row r="27" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="44"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="50"/>
     </row>
     <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O28" s="16" t="s">
+      <c r="O28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="P28" s="16" t="s">
+      <c r="P28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q28" s="16" t="s">
+      <c r="Q28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R28" s="16" t="s">
+      <c r="R28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="36" t="s">
+      <c r="S28" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="19" t="s">
+      <c r="O29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P29" s="19" t="s">
+      <c r="P29" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Q29" s="19" t="s">
+      <c r="Q29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="19" t="s">
+      <c r="R29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="25" t="s">
+      <c r="S29" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="19" t="s">
+      <c r="O30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P30" s="19" t="s">
+      <c r="P30" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Q30" s="19" t="s">
+      <c r="Q30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R30" s="19" t="s">
+      <c r="R30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="S30" s="25" t="s">
+      <c r="S30" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="33" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="K31" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="19" t="s">
+      <c r="O31" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="19" t="s">
+      <c r="P31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q31" s="19" t="s">
+      <c r="Q31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R31" s="19" t="s">
+      <c r="R31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="S31" s="25" t="s">
+      <c r="S31" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="20" t="s">
+      <c r="L32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O32" s="19" t="s">
+      <c r="O32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="17" t="s">
+      <c r="P32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q32" s="19" t="s">
+      <c r="Q32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R32" s="19" t="s">
+      <c r="R32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="S32" s="25" t="s">
+      <c r="S32" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="30" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="L33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="17" t="s">
+      <c r="M33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N33" s="20" t="s">
+      <c r="N33" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O33" s="19" t="s">
+      <c r="O33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="P33" s="17" t="s">
+      <c r="P33" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q33" s="19" t="s">
+      <c r="Q33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="R33" s="17" t="s">
+      <c r="R33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S33" s="25" t="s">
+      <c r="S33" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="30" t="s">
+      <c r="A34" s="41"/>
+      <c r="B34" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="19" t="s">
+      <c r="G34" s="45"/>
+      <c r="H34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="31" t="s">
+      <c r="I34" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="17" t="s">
+      <c r="L34" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="17" t="s">
+      <c r="M34" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N34" s="17" t="s">
+      <c r="N34" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O34" s="20" t="s">
+      <c r="O34" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="P34" s="32" t="s">
+      <c r="P34" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q34" s="19" t="s">
+      <c r="Q34" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="17" t="s">
+      <c r="R34" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="S34" s="25" t="s">
+      <c r="S34" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="30" t="s">
+      <c r="A35" s="41"/>
+      <c r="B35" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="45"/>
+      <c r="E35" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="19" t="s">
+      <c r="G35" s="45"/>
+      <c r="H35" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="32" t="s">
+      <c r="I35" s="45"/>
+      <c r="J35" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="40"/>
-      <c r="L35" s="32" t="s">
+      <c r="K35" s="45"/>
+      <c r="L35" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="M35" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N35" s="17" t="s">
+      <c r="N35" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O35" s="17" t="s">
+      <c r="O35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="31" t="s">
+      <c r="P35" s="45"/>
+      <c r="Q35" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R35" s="17" t="s">
+      <c r="R35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="25" t="s">
+      <c r="S35" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="17" t="s">
+      <c r="D36" s="45"/>
+      <c r="E36" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="19" t="s">
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="32" t="s">
+      <c r="I36" s="45"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N36" s="17" t="s">
+      <c r="N36" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="32" t="s">
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="S36" s="24" t="s">
+      <c r="S36" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="30" t="s">
+      <c r="A37" s="41"/>
+      <c r="B37" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="17" t="s">
+      <c r="D37" s="45"/>
+      <c r="E37" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="17" t="s">
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="32" t="s">
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="24" t="s">
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="30" t="s">
+      <c r="A38" s="41"/>
+      <c r="B38" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="17" t="s">
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="24" t="s">
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="37" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="38" t="s">
+      <c r="D39" s="48"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="27"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="25"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M40" s="45"/>
+      <c r="M40" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2299,28 +2301,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>